--- a/Dictionnaire de données.xlsx
+++ b/Dictionnaire de données.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
-  <si>
-    <t>Dictionnaire de données</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Utilisateur</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Propriété</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -144,31 +138,21 @@
   </si>
   <si>
     <t>Etat éstimé</t>
+  </si>
+  <si>
+    <t>LienImg</t>
+  </si>
+  <si>
+    <t>Propriétés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,15 +175,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,17 +209,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,407 +539,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="23" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
-      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dictionnaire de données.xlsx
+++ b/Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>Utilisateur</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Propriétés</t>
+  </si>
+  <si>
+    <t>Niveau</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,12 +776,12 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -789,23 +792,21 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -816,21 +817,16 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="7"/>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
+    </row>
+    <row r="19" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -844,11 +840,11 @@
         <v>6</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>21</v>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -861,10 +857,10 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -875,12 +871,12 @@
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,6 +887,13 @@
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
@@ -899,6 +902,13 @@
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
